--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N2">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q2">
-        <v>61.00700279231067</v>
+        <v>53.182492767222</v>
       </c>
       <c r="R2">
-        <v>549.0630251307959</v>
+        <v>478.642434904998</v>
       </c>
       <c r="S2">
-        <v>0.0003163158034925219</v>
+        <v>0.0002510799118956707</v>
       </c>
       <c r="T2">
-        <v>0.0003163158034925219</v>
+        <v>0.0002510799118956708</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>267.08268</v>
       </c>
       <c r="O3">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P3">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q3">
-        <v>1776.614638703627</v>
+        <v>2601.69209217176</v>
       </c>
       <c r="R3">
-        <v>15989.53174833264</v>
+        <v>23415.22882954584</v>
       </c>
       <c r="S3">
-        <v>0.009211586559189975</v>
+        <v>0.01228285075205719</v>
       </c>
       <c r="T3">
-        <v>0.009211586559189975</v>
+        <v>0.01228285075205719</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H4">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N4">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O4">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P4">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q4">
-        <v>422.4568813139796</v>
+        <v>921.3930523021886</v>
       </c>
       <c r="R4">
-        <v>3802.111931825816</v>
+        <v>8292.537470719697</v>
       </c>
       <c r="S4">
-        <v>0.002190400802161996</v>
+        <v>0.004349989523919056</v>
       </c>
       <c r="T4">
-        <v>0.002190400802161996</v>
+        <v>0.004349989523919056</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H5">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N5">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O5">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P5">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q5">
-        <v>3.671963789579999</v>
+        <v>4.279559361429333</v>
       </c>
       <c r="R5">
-        <v>33.04767410621999</v>
+        <v>38.516034252864</v>
       </c>
       <c r="S5">
-        <v>1.903880084800427E-05</v>
+        <v>2.020423134588803E-05</v>
       </c>
       <c r="T5">
-        <v>1.903880084800427E-05</v>
+        <v>2.020423134588803E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J6">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N6">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O6">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P6">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q6">
-        <v>5005.537070994423</v>
+        <v>2979.73074476857</v>
       </c>
       <c r="R6">
-        <v>45049.83363894981</v>
+        <v>26817.57670291713</v>
       </c>
       <c r="S6">
-        <v>0.02595325795488463</v>
+        <v>0.01406760935678483</v>
       </c>
       <c r="T6">
-        <v>0.02595325795488463</v>
+        <v>0.01406760935678483</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J7">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>267.08268</v>
       </c>
       <c r="O7">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P7">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q7">
         <v>145768.6827392089</v>
@@ -883,10 +883,10 @@
         <v>1311918.14465288</v>
       </c>
       <c r="S7">
-        <v>0.7557974641316252</v>
+        <v>0.6881886522225223</v>
       </c>
       <c r="T7">
-        <v>0.7557974641316253</v>
+        <v>0.6881886522225223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J8">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N8">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O8">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P8">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q8">
-        <v>34661.98114194758</v>
+        <v>51624.19178014017</v>
       </c>
       <c r="R8">
-        <v>311957.8302775283</v>
+        <v>464617.7260212615</v>
       </c>
       <c r="S8">
-        <v>0.1797192439183345</v>
+        <v>0.2437230157784473</v>
       </c>
       <c r="T8">
-        <v>0.1797192439183345</v>
+        <v>0.2437230157784472</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J9">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N9">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O9">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P9">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q9">
-        <v>301.2793618900499</v>
+        <v>239.7769254466489</v>
       </c>
       <c r="R9">
-        <v>2711.514257010449</v>
+        <v>2157.99232901984</v>
       </c>
       <c r="S9">
-        <v>0.001562106300425842</v>
+        <v>0.001132011046929798</v>
       </c>
       <c r="T9">
-        <v>0.001562106300425842</v>
+        <v>0.001132011046929798</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H10">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I10">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J10">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N10">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O10">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P10">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q10">
-        <v>77.63871720744334</v>
+        <v>68.04832345922</v>
       </c>
       <c r="R10">
-        <v>698.7484548669901</v>
+        <v>612.4349111329801</v>
       </c>
       <c r="S10">
-        <v>0.0004025497416945136</v>
+        <v>0.0003212629978359988</v>
       </c>
       <c r="T10">
-        <v>0.0004025497416945136</v>
+        <v>0.0003212629978359988</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H11">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I11">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J11">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>267.08268</v>
       </c>
       <c r="O11">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P11">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q11">
-        <v>2260.954893825734</v>
+        <v>3328.929800344267</v>
       </c>
       <c r="R11">
-        <v>20348.5940444316</v>
+        <v>29960.3682030984</v>
       </c>
       <c r="S11">
-        <v>0.01172284706946753</v>
+        <v>0.01571621331545514</v>
       </c>
       <c r="T11">
-        <v>0.01172284706946753</v>
+        <v>0.01571621331545514</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H12">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I12">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J12">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N12">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q12">
-        <v>537.6269746005045</v>
+        <v>1178.945348247775</v>
       </c>
       <c r="R12">
-        <v>4838.64277140454</v>
+        <v>10610.50813422998</v>
       </c>
       <c r="S12">
-        <v>0.002787547341556118</v>
+        <v>0.005565919887649608</v>
       </c>
       <c r="T12">
-        <v>0.002787547341556118</v>
+        <v>0.005565919887649607</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H13">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I13">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J13">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N13">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O13">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P13">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q13">
-        <v>4.67301367395</v>
+        <v>5.475802741404445</v>
       </c>
       <c r="R13">
-        <v>42.05712306554999</v>
+        <v>49.28222467264001</v>
       </c>
       <c r="S13">
-        <v>2.42291541520106E-05</v>
+        <v>2.585181698585726E-05</v>
       </c>
       <c r="T13">
-        <v>2.42291541520106E-05</v>
+        <v>2.585181698585726E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H14">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N14">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O14">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P14">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q14">
-        <v>53.50191229130734</v>
+        <v>45.163695085119</v>
       </c>
       <c r="R14">
-        <v>481.517210621766</v>
+        <v>406.4732557660711</v>
       </c>
       <c r="S14">
-        <v>0.0002774025865919831</v>
+        <v>0.0002132223593295653</v>
       </c>
       <c r="T14">
-        <v>0.0002774025865919832</v>
+        <v>0.0002132223593295653</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H15">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>267.08268</v>
       </c>
       <c r="O15">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P15">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q15">
-        <v>1558.055243247494</v>
+        <v>2209.41182412252</v>
       </c>
       <c r="R15">
-        <v>14022.49718922744</v>
+        <v>19884.70641710268</v>
       </c>
       <c r="S15">
-        <v>0.008078375819106538</v>
+        <v>0.01043085604448835</v>
       </c>
       <c r="T15">
-        <v>0.00807837581910654</v>
+        <v>0.01043085604448835</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H16">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N16">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O16">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P16">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q16">
-        <v>370.4861733310485</v>
+        <v>782.466422735469</v>
       </c>
       <c r="R16">
-        <v>3334.375559979436</v>
+        <v>7042.197804619221</v>
       </c>
       <c r="S16">
-        <v>0.001920937371715154</v>
+        <v>0.003694102894756139</v>
       </c>
       <c r="T16">
-        <v>0.001920937371715154</v>
+        <v>0.003694102894756138</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H17">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N17">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q17">
-        <v>3.22023826143</v>
+        <v>3.634292114592</v>
       </c>
       <c r="R17">
-        <v>28.98214435287</v>
+        <v>32.708629031328</v>
       </c>
       <c r="S17">
-        <v>1.66966447535426E-05</v>
+        <v>1.715785959730888E-05</v>
       </c>
       <c r="T17">
-        <v>1.66966447535426E-05</v>
+        <v>1.715785959730888E-05</v>
       </c>
     </row>
   </sheetData>
